--- a/EnrollReport_Input_Example.xlsx
+++ b/EnrollReport_Input_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\InfoEng\DMTools\Enroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Projects\InfoEng\QuartoRMD\vizgallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BD254D99-5971-4867-BADA-7FF5EB6747D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD4303-FFF6-493B-ADEA-27B97436AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnrollReport_Input_Example" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,11 +1130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EnrollReport_Input_Example.xlsx
+++ b/EnrollReport_Input_Example.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Projects\InfoEng\QuartoRMD\vizgallery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DD4303-FFF6-493B-ADEA-27B97436AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40799BD0-74C8-4B3A-984D-074B0C17AD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnrollReport_Input_Example" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -289,14 +289,14 @@
     <t>2020-03-01</t>
   </si>
   <si>
-    <t>2021-03-17</t>
+    <t>2021-01-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +427,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
@@ -1216,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>88</v>
@@ -1245,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -1274,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -1303,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>88</v>
@@ -1332,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>88</v>
@@ -1361,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>88</v>
@@ -1390,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>88</v>
@@ -1419,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>88</v>
@@ -1448,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>88</v>
@@ -1477,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>88</v>
@@ -1506,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>88</v>
@@ -1535,7 +1541,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>88</v>
@@ -1564,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>88</v>
@@ -1593,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>88</v>
@@ -1622,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>88</v>
@@ -1651,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>88</v>
@@ -1680,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>88</v>
@@ -1709,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>88</v>
@@ -1738,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>88</v>
@@ -1767,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="C22">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>88</v>
@@ -1796,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>88</v>
@@ -1825,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>88</v>
@@ -1854,7 +1860,7 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>88</v>
@@ -1883,7 +1889,7 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>88</v>
@@ -1912,7 +1918,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>88</v>
@@ -1941,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>88</v>
@@ -1970,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
@@ -1999,7 +2005,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>88</v>
@@ -2028,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>88</v>
@@ -2057,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>88</v>
@@ -2086,7 +2092,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>88</v>
@@ -2115,7 +2121,7 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>88</v>
@@ -2144,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>88</v>
@@ -2173,7 +2179,7 @@
         <v>42</v>
       </c>
       <c r="C36">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>88</v>
@@ -2202,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>88</v>
@@ -2231,7 +2237,7 @@
         <v>44</v>
       </c>
       <c r="C38">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>88</v>
@@ -2260,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>88</v>
@@ -2289,7 +2295,7 @@
         <v>46</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>88</v>
@@ -2318,7 +2324,7 @@
         <v>47</v>
       </c>
       <c r="C41">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>88</v>
@@ -2347,7 +2353,7 @@
         <v>48</v>
       </c>
       <c r="C42">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2376,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="C43">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>88</v>
@@ -2405,7 +2411,7 @@
         <v>50</v>
       </c>
       <c r="C44">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>88</v>
@@ -2434,7 +2440,7 @@
         <v>51</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>88</v>
@@ -2463,7 +2469,7 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>88</v>
@@ -2492,7 +2498,7 @@
         <v>53</v>
       </c>
       <c r="C47">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>88</v>
@@ -2521,7 +2527,7 @@
         <v>54</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>88</v>
@@ -2550,7 +2556,7 @@
         <v>55</v>
       </c>
       <c r="C49">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>88</v>
@@ -2579,7 +2585,7 @@
         <v>56</v>
       </c>
       <c r="C50">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>88</v>
@@ -2608,7 +2614,7 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>88</v>
@@ -2637,7 +2643,7 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>88</v>
@@ -2666,7 +2672,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>88</v>
@@ -2695,7 +2701,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>88</v>
@@ -2724,7 +2730,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>88</v>
@@ -2753,7 +2759,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>88</v>
@@ -2782,7 +2788,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>88</v>
@@ -2811,7 +2817,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>88</v>
@@ -2840,7 +2846,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>88</v>
@@ -2869,7 +2875,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>88</v>
@@ -2898,7 +2904,7 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>88</v>
@@ -2927,7 +2933,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>88</v>
@@ -2956,7 +2962,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>88</v>
@@ -2985,7 +2991,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>88</v>
@@ -3014,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>88</v>
@@ -3043,7 +3049,7 @@
         <v>66</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>88</v>
@@ -3072,7 +3078,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>88</v>
@@ -3101,7 +3107,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>88</v>
@@ -3130,7 +3136,7 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>88</v>
@@ -3159,7 +3165,7 @@
         <v>70</v>
       </c>
       <c r="C70">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>88</v>
@@ -3188,7 +3194,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>88</v>
@@ -3217,7 +3223,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>88</v>
@@ -3246,7 +3252,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>88</v>
@@ -3275,7 +3281,7 @@
         <v>71</v>
       </c>
       <c r="C74">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>88</v>
@@ -3304,7 +3310,7 @@
         <v>71</v>
       </c>
       <c r="C75">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>88</v>
@@ -3333,7 +3339,7 @@
         <v>71</v>
       </c>
       <c r="C76">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>88</v>
@@ -3362,7 +3368,7 @@
         <v>71</v>
       </c>
       <c r="C77">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>88</v>
@@ -3391,7 +3397,7 @@
         <v>72</v>
       </c>
       <c r="C78">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>88</v>
@@ -3420,7 +3426,7 @@
         <v>73</v>
       </c>
       <c r="C79">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>88</v>
@@ -3449,7 +3455,7 @@
         <v>74</v>
       </c>
       <c r="C80">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>88</v>
@@ -3478,7 +3484,7 @@
         <v>75</v>
       </c>
       <c r="C81">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>88</v>
@@ -3507,7 +3513,7 @@
         <v>76</v>
       </c>
       <c r="C82">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>88</v>
@@ -3536,7 +3542,7 @@
         <v>77</v>
       </c>
       <c r="C83">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>88</v>
@@ -3565,7 +3571,7 @@
         <v>78</v>
       </c>
       <c r="C84">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>88</v>
@@ -3594,7 +3600,7 @@
         <v>79</v>
       </c>
       <c r="C85">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>88</v>
@@ -3623,7 +3629,7 @@
         <v>79</v>
       </c>
       <c r="C86">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>88</v>
@@ -3652,7 +3658,7 @@
         <v>79</v>
       </c>
       <c r="C87">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>88</v>
@@ -3681,7 +3687,7 @@
         <v>79</v>
       </c>
       <c r="C88">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>88</v>
@@ -3710,7 +3716,7 @@
         <v>80</v>
       </c>
       <c r="C89">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>88</v>
@@ -3739,7 +3745,7 @@
         <v>81</v>
       </c>
       <c r="C90">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>88</v>
@@ -3768,7 +3774,7 @@
         <v>82</v>
       </c>
       <c r="C91">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>88</v>
@@ -3797,7 +3803,7 @@
         <v>83</v>
       </c>
       <c r="C92">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>88</v>
@@ -3826,7 +3832,7 @@
         <v>84</v>
       </c>
       <c r="C93">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>88</v>
@@ -3855,7 +3861,7 @@
         <v>84</v>
       </c>
       <c r="C94">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>88</v>
@@ -3884,7 +3890,7 @@
         <v>84</v>
       </c>
       <c r="C95">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>88</v>
@@ -3913,7 +3919,7 @@
         <v>84</v>
       </c>
       <c r="C96">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>88</v>
@@ -3942,7 +3948,7 @@
         <v>84</v>
       </c>
       <c r="C97">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>88</v>
@@ -3971,7 +3977,7 @@
         <v>85</v>
       </c>
       <c r="C98">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>88</v>
@@ -4000,7 +4006,7 @@
         <v>86</v>
       </c>
       <c r="C99">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>88</v>
@@ -4029,7 +4035,7 @@
         <v>87</v>
       </c>
       <c r="C100">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>88</v>
@@ -4051,6 +4057,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
